--- a/Letras Activas.xlsx
+++ b/Letras Activas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AF1282-D118-4FB0-AD89-9BBFB6549B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FA60A-D691-473D-B86C-5F61B87DE285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>S28N5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>T15D5</t>
   </si>
@@ -83,9 +80,6 @@
     <t>S29Y6</t>
   </si>
   <si>
-    <t>28/11/2025</t>
-  </si>
-  <si>
     <t>15/12/2025</t>
   </si>
   <si>
@@ -120,6 +114,18 @@
   </si>
   <si>
     <t>15/1/2027</t>
+  </si>
+  <si>
+    <t>S30A6</t>
+  </si>
+  <si>
+    <t>S31G6</t>
+  </si>
+  <si>
+    <t>S30O6</t>
+  </si>
+  <si>
+    <t>T30A7</t>
   </si>
 </sst>
 </file>
@@ -155,8 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +182,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>677752</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13667F28-8C85-03CF-08E0-D35531447E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="190500"/>
+          <a:ext cx="10583752" cy="5811061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,111 +550,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE54452-AF50-4305-B8DA-DFD46BDACA81}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>123.56</v>
+        <v>170.84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>170.84</v>
+        <v>119.06</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>119.06</v>
+        <v>142.22999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>142.22999999999999</v>
+        <v>144.97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>144.97</v>
+        <v>125.84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7">
-        <v>125.84</v>
+        <v>135.24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46142</v>
       </c>
       <c r="C8">
-        <v>135.24</v>
+        <v>127.49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9">
         <v>132.04</v>
@@ -603,10 +662,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C10">
         <v>144.63</v>
@@ -614,10 +673,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <v>144.88</v>
@@ -625,39 +684,73 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46265</v>
       </c>
       <c r="C12">
-        <v>152.1</v>
+        <v>127.06</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>161.13999999999999</v>
+        <v>152.1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>46325</v>
       </c>
       <c r="C14">
+        <v>135.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>161.13999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
         <v>161.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46492</v>
+      </c>
+      <c r="C17">
+        <v>157.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Letras Activas.xlsx
+++ b/Letras Activas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FA60A-D691-473D-B86C-5F61B87DE285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70E782-B6D6-4D89-9128-3F5A7CA13AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD73C5C9-5C4F-49BA-8BAE-0ED83DF77E5D}"/>
   </bookViews>
@@ -163,8 +163,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -182,55 +184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>677752</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>96061</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13667F28-8C85-03CF-08E0-D35531447E8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5762625" y="190500"/>
-          <a:ext cx="10583752" cy="5811061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,19 +506,19 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
@@ -576,7 +529,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2">
@@ -587,7 +540,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3">
@@ -598,7 +551,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4">
@@ -609,7 +562,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -620,7 +573,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -631,7 +584,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7">
@@ -642,7 +595,7 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>46142</v>
       </c>
       <c r="C8">
@@ -653,7 +606,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9">
@@ -664,7 +617,7 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10">
@@ -675,7 +628,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11">
@@ -686,7 +639,7 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>46265</v>
       </c>
       <c r="C12">
@@ -697,7 +650,7 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13">
@@ -708,7 +661,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>46325</v>
       </c>
       <c r="C14">
@@ -719,7 +672,7 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C15">
@@ -730,7 +683,7 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16">
@@ -741,8 +694,8 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
-        <v>46492</v>
+      <c r="B17" s="1">
+        <v>46507</v>
       </c>
       <c r="C17">
         <v>157.34</v>
@@ -751,6 +704,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>